--- a/temp_humi2VPD.xlsx
+++ b/temp_humi2VPD.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwata\github\msp430_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwata\Documents\github\msp430_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20170529" sheetId="5" r:id="rId1"/>
+    <sheet name="test" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>計測日</t>
     <rPh sb="0" eb="3">
@@ -191,6 +192,35 @@
     <t>晴れ</t>
     <rPh sb="0" eb="1">
       <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHT21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vaisala</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -282,6 +312,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,12 +325,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -581,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J7" sqref="J7:L8"/>
     </sheetView>
   </sheetViews>
@@ -597,60 +627,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6">
         <v>42884</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
@@ -1116,4 +1146,313 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="6.109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="34.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6">
+        <v>42884</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27.65</v>
+      </c>
+      <c r="E7" s="1">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="F7" s="1">
+        <f>$D7+273.15</f>
+        <v>300.79999999999995</v>
+      </c>
+      <c r="G7" s="1">
+        <f>EXP(-6096.9385/$F7+16.635794-2.711193*POWER(10,-2)*$F7+1.673952*POWER(10,-5)*$F7*$F7+2.433502*LN($F7))*100</f>
+        <v>3706.5893717795498</v>
+      </c>
+      <c r="H7" s="1">
+        <f>G7*E7/100</f>
+        <v>2430.4106510758506</v>
+      </c>
+      <c r="I7" s="1">
+        <f>(G7-H7)/1000</f>
+        <v>1.2761787207036992</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1">
+        <v>26.23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>63.82</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ref="F8:F16" si="0">$D8+273.15</f>
+        <v>299.38</v>
+      </c>
+      <c r="G8" s="1">
+        <f>EXP(-6096.9385/$F8+16.635794-2.711193*POWER(10,-2)*$F8+1.673952*POWER(10,-5)*$F8*$F8+2.433502*LN($F8))*100</f>
+        <v>3409.9260595269102</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H16" si="1">G8*E8/100</f>
+        <v>2176.2148111900738</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I16" si="2">(G8-H8)/1000</f>
+        <v>1.2337112483368364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="H9" s="1">
+        <f>H7-H8</f>
+        <v>254.19583988577688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>22.76</v>
+      </c>
+      <c r="E11" s="1">
+        <v>85.59</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>295.90999999999997</v>
+      </c>
+      <c r="G11" s="1">
+        <f>EXP(-6096.9385/$F11+16.635794-2.711193*POWER(10,-2)*$F11+1.673952*POWER(10,-5)*$F11*$F11+2.433502*LN($F11))*100</f>
+        <v>2770.4420203770505</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11*E11/100</f>
+        <v>2371.2213252407178</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39922069513633279</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>21.37</v>
+      </c>
+      <c r="E12" s="1">
+        <v>88.63</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>294.52</v>
+      </c>
+      <c r="G12" s="1">
+        <f>EXP(-6096.9385/$F12+16.635794-2.711193*POWER(10,-2)*$F12+1.673952*POWER(10,-5)*$F12*$F12+2.433502*LN($F12))*100</f>
+        <v>2545.3158741642787</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>2255.9134592718001</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28940241489247864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="H13" s="1">
+        <f>H11-H12</f>
+        <v>115.30786596891767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1">
+        <v>24.16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>78.95</v>
+      </c>
+      <c r="F15" s="1">
+        <f>$D15+273.15</f>
+        <v>297.31</v>
+      </c>
+      <c r="G15" s="1">
+        <f>EXP(-6096.9385/$F15+16.635794-2.711193*POWER(10,-2)*$F15+1.673952*POWER(10,-5)*$F15*$F15+2.433502*LN($F15))*100</f>
+        <v>3014.5806928157244</v>
+      </c>
+      <c r="H15" s="1">
+        <f>G15*E15/100</f>
+        <v>2380.0114569780144</v>
+      </c>
+      <c r="I15" s="1">
+        <f>(G15-H15)/1000</f>
+        <v>0.63456923583771008</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>295.95</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16" si="3">EXP(-6096.9385/$F16+16.635794-2.711193*POWER(10,-2)*$F16+1.673952*POWER(10,-5)*$F16*$F16+2.433502*LN($F16))*100</f>
+        <v>2777.1700197114233</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>2221.4582987671674</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5557117209442558</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="1">
+        <f>H15-H16</f>
+        <v>158.55315821084696</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>